--- a/biology/Botanique/Géranium_des_prés/Géranium_des_prés.xlsx
+++ b/biology/Botanique/Géranium_des_prés/Géranium_des_prés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_des_pr%C3%A9s</t>
+          <t>Géranium_des_prés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geranium pratense
-Le Géranium des prés (Geranium pratense) est une plante de la famille des Géraniacées[1]. Ce géranium vivace eurasiatique est aussi cultivé comme plante ornementale.
-On considère que cette plante fait partie de la flore obsidionale de France[2].
+Le Géranium des prés (Geranium pratense) est une plante de la famille des Géraniacées. Ce géranium vivace eurasiatique est aussi cultivé comme plante ornementale.
+On considère que cette plante fait partie de la flore obsidionale de France.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_des_pr%C3%A9s</t>
+          <t>Géranium_des_prés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace, à tiges de 30 à 80 cm de hauteur, à souche épaisse. Les tiges sont velues et très ramifiées.
-Les feuilles opposés, palmatipartites, de 6-11 cm, sont formées de 5-7 segments larges, incisés-dentés[3].
+Les feuilles opposés, palmatipartites, de 6-11 cm, sont formées de 5-7 segments larges, incisés-dentés.
 Les inflorescences sont des racèmes de cymes. Les pédoncules biflores sont plus longs que la feuille. Les fleurs  d'un diamètre de 30 à 35 mm sont blanches à nervures vertes à bleu-mauve à nervures roses. La fleur est composée de 5 sépales étalés, 5 larges pétales obovales à onglet court et cilié, de 10 étamines à base large, triangulaire, ciliée, de 5 carpelles velus-glanduleux.
 La floraison s'étale de mai à septembre.
-Le géranium des près est proche du Géranium de l'Himalaya ; il s'en distingue par un limbe bien plus grand et plus profondément divisé[3].
+Le géranium des près est proche du Géranium de l'Himalaya ; il s'en distingue par un limbe bien plus grand et plus profondément divisé.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_des_pr%C3%A9s</t>
+          <t>Géranium_des_prés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,17 +564,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Organes reproducteurs
-Les fleurs sont blanches ou d'une couleur bleue tirant sur le pourpre.
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches ou d'une couleur bleue tirant sur le pourpre.
 Période de floraison : mai-septembre
 Inflorescence : racème de cymes unipares hélicoïdes
 Sexualité : hermaphrodite
 Pollinisation : entomogame, autogame
 Les fruits sont des capsules.
-Répartition et habitat
-En France le géranium des prés n'est présent que dans les départements du nord et du nord-est, du centre jusqu'à la Méditerranée et de l'est des Pyrénées. On le trouve dans presque toute l'Europe, le Caucase, la Sibérie, la Chine, l'Afghanistan, le Kazakhstan, le Kyrgyzstan, la Mongolie, le Népal, le Pakistan, le Tadjikistan, le Turkménistan, l’Ouzbékistan[3],[4]. Il s'est naturalisé ailleurs.
-Le géranium des prés est une plante eurasiatique des prairies fauchées.
-Il affectionne les bois et les coteaux sur les parties à tonte annuelle.
 </t>
         </is>
       </c>
@@ -571,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9ranium_des_pr%C3%A9s</t>
+          <t>Géranium_des_prés</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,13 +601,54 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France le géranium des prés n'est présent que dans les départements du nord et du nord-est, du centre jusqu'à la Méditerranée et de l'est des Pyrénées. On le trouve dans presque toute l'Europe, le Caucase, la Sibérie, la Chine, l'Afghanistan, le Kazakhstan, le Kyrgyzstan, la Mongolie, le Népal, le Pakistan, le Tadjikistan, le Turkménistan, l’Ouzbékistan,. Il s'est naturalisé ailleurs.
+Le géranium des prés est une plante eurasiatique des prairies fauchées.
+Il affectionne les bois et les coteaux sur les parties à tonte annuelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Géranium_des_prés</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/G%C3%A9ranium_des_pr%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>De nombreux cultivars ont été sélectionnés pour la culture ornementale. C'est une plante vivace de grande taille.
-Quelques cultivars[5]. :
+Quelques cultivars. :
 Geranium pratense 'Albiflorum' à fleurs blanches et longue floraison
 Geranium pratense 'Coerulum' à fleurs bleues
 Geranium pratense 'Mrs Kendal Klarke' à fleurs gris perle veiné de rose pâle
@@ -601,31 +657,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>G%C3%A9ranium_des_pr%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Géranium_des_prés</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/G%C3%A9ranium_des_pr%C3%A9s</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Photos</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
